--- a/biology/Médecine/Muscles_extenseurs_des_bras/Muscles_extenseurs_des_bras.xlsx
+++ b/biology/Médecine/Muscles_extenseurs_des_bras/Muscles_extenseurs_des_bras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les extenseurs du bras sont des muscles du membre supérieur.  Ce sont des muscles striés squelettiques. Le principal muscle permettant l’extension du bras est le triceps brachial. D’autres muscles sont impliqués dans le mouvement de l’extension du bras dans un rôle secondaire.
 Ce groupe se compose de quatre muscles (1 principal et 3 secondaires) :
@@ -516,7 +528,9 @@
           <t>Triceps brachial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Origine :    
 Tubérosité sous-glénoïdienne de la scapula (long chef)
@@ -556,7 +570,9 @@
           <t>Grand rond</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Origine : surface postérieure de l'angle inférieur de la scapula.
 Terminaison : sur la lèvre interne (médiale) de la coulisse (gouttière) bicipitale
@@ -593,7 +609,9 @@
           <t>Grand dorsal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Origine :
 Par une aponévrose (ou fascia) lombo-sacrée sur les apophyses épineuses des 6 dernières vertèbres thoraciques (dorsales), 5 vertèbres lombaires, sacrum et le 1/3 postérieur de la crête iliaque.
@@ -635,7 +653,9 @@
           <t>Deltoïde</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Origine :
 1/3 latéral de la clavicule (bord inférieur) et acromion
